--- a/examples/scripts/output/financial_statements.xlsx/income_statement.xlsx
+++ b/examples/scripts/output/financial_statements.xlsx/income_statement.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,138 +557,138 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>1,400</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>1,700</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>1,945</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>2,233</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>2,574</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Gross Profit Subtotal</t>
+          <t xml:space="preserve">  Research &amp; Development</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>gross_profit_subtotal</t>
+          <t>r_d</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>-100</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>-120</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>-130</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>-137</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>-158</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Research &amp; Development</t>
+          <t xml:space="preserve">  Selling, General &amp; Administrative</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>r_d</t>
+          <t>sg_a</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-100</t>
+          <t>-200</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-120</t>
+          <t>-250</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-130</t>
+          <t>-261</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-137</t>
+          <t>-281</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-144</t>
+          <t>-274</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Selling, General &amp; Administrative</t>
+          <t xml:space="preserve">  Depreciation &amp; Amortization</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>sg_a</t>
+          <t>depreciation_amortization</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-200</t>
+          <t>-30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-250</t>
+          <t>-35</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-225</t>
+          <t>-36</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-225</t>
+          <t>-37</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-225</t>
+          <t>-38</t>
         </is>
       </c>
     </row>
@@ -703,46 +703,251 @@
           <t>total_operating_expenses</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-330</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-405</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-426</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-456</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-471</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t xml:space="preserve">  EBITDA</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1,100</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1,330</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1,555</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1,814</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2,141</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t xml:space="preserve">  Operating Income (EBIT)</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>operating_income</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>330</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>340</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>308</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>251</t>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1,070</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1,295</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1,519</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1,777</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2,103</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Interest Expense</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-50</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-69</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Earnings Before Tax</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ebt</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1,020</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1,235</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1,456</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1,711</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2,034</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Income Tax Expense</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>-75</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>-90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>-108</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-130</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>-156</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Net Income</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1,145</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1,348</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1,582</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1,878</t>
         </is>
       </c>
     </row>

--- a/examples/scripts/output/financial_statements.xlsx/income_statement.xlsx
+++ b/examples/scripts/output/financial_statements.xlsx/income_statement.xlsx
@@ -641,17 +641,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-261</t>
+          <t>-256</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-281</t>
+          <t>-264</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-274</t>
+          <t>-272</t>
         </is>
       </c>
     </row>
@@ -715,17 +715,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-426</t>
+          <t>-422</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-456</t>
+          <t>-439</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-471</t>
+          <t>-469</t>
         </is>
       </c>
     </row>
@@ -752,17 +752,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1,555</t>
+          <t>1,559</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1,814</t>
+          <t>1,832</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2,141</t>
+          <t>2,143</t>
         </is>
       </c>
     </row>
@@ -789,17 +789,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1,519</t>
+          <t>1,523</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1,777</t>
+          <t>1,795</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2,103</t>
+          <t>2,105</t>
         </is>
       </c>
     </row>
@@ -863,17 +863,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1,456</t>
+          <t>1,460</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1,711</t>
+          <t>1,728</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2,034</t>
+          <t>2,036</t>
         </is>
       </c>
     </row>
@@ -937,17 +937,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1,348</t>
+          <t>1,352</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1,582</t>
+          <t>1,599</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1,878</t>
+          <t>1,880</t>
         </is>
       </c>
     </row>

--- a/examples/scripts/output/financial_statements.xlsx/income_statement.xlsx
+++ b/examples/scripts/output/financial_statements.xlsx/income_statement.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>2026</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>units</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -506,6 +511,7 @@
           <t>1,597</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -543,6 +549,7 @@
           <t>-977</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -580,6 +587,7 @@
           <t>2,574</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -617,6 +625,7 @@
           <t>-158</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -641,19 +650,20 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-256</t>
+          <t>-257</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-264</t>
+          <t>-258</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-272</t>
-        </is>
-      </c>
+          <t>-269</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -691,6 +701,7 @@
           <t>-38</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -705,29 +716,30 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-330</t>
+          <t>330</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-405</t>
+          <t>405</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-422</t>
+          <t>423</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-439</t>
+          <t>432</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-469</t>
-        </is>
-      </c>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -742,29 +754,30 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1,100</t>
+          <t>1,700</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1,330</t>
+          <t>2,070</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1,559</t>
+          <t>2,332</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1,832</t>
+          <t>2,628</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2,143</t>
-        </is>
-      </c>
+          <t>3,001</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -789,19 +802,20 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1,523</t>
+          <t>1,522</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1,795</t>
+          <t>1,801</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2,105</t>
-        </is>
-      </c>
+          <t>2,108</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -839,6 +853,7 @@
           <t>-69</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -853,29 +868,30 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1,020</t>
+          <t>1,120</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1,235</t>
+          <t>1,355</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1,460</t>
+          <t>1,585</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1,728</t>
+          <t>1,867</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2,036</t>
-        </is>
-      </c>
+          <t>2,178</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -913,6 +929,7 @@
           <t>-156</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -927,29 +944,30 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>1,195</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1,145</t>
+          <t>1,445</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1,352</t>
+          <t>1,693</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1,599</t>
+          <t>1,997</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1,880</t>
-        </is>
-      </c>
+          <t>2,333</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/examples/scripts/output/financial_statements.xlsx/income_statement.xlsx
+++ b/examples/scripts/output/financial_statements.xlsx/income_statement.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,11 +469,6 @@
           <t>2026</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>units</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -511,7 +506,6 @@
           <t>1,597</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -549,7 +543,6 @@
           <t>-977</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -587,7 +580,6 @@
           <t>2,574</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -625,7 +617,6 @@
           <t>-158</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -650,20 +641,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-257</t>
+          <t>-239</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-258</t>
+          <t>-251</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-269</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>-243</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -701,7 +691,6 @@
           <t>-38</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -726,20 +715,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>405</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>426</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>466</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>439</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -764,20 +752,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2,332</t>
+          <t>2,314</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2,628</t>
+          <t>2,622</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3,001</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>2,975</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -802,20 +789,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1,522</t>
+          <t>1,540</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1,801</t>
+          <t>1,808</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2,108</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>2,134</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -853,7 +839,6 @@
           <t>-69</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -878,20 +863,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1,585</t>
+          <t>1,603</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1,867</t>
+          <t>1,874</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2,178</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>2,204</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -929,7 +913,6 @@
           <t>-156</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -954,20 +937,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1,693</t>
+          <t>1,711</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1,997</t>
+          <t>2,003</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2,333</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>2,359</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/examples/scripts/output/financial_statements.xlsx/income_statement.xlsx
+++ b/examples/scripts/output/financial_statements.xlsx/income_statement.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -581,376 +581,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Research &amp; Development</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>r_d</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>-100</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>-120</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>-130</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>-137</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>-158</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Selling, General &amp; Administrative</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>sg_a</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>-200</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>-250</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>-239</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>-251</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>-243</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Depreciation &amp; Amortization</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>depreciation_amortization</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>-30</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-35</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-36</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-37</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>-38</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Total Operating Expenses</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>total_operating_expenses</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>330</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>405</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>405</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>426</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>439</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  EBITDA</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ebitda</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1,700</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2,070</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2,314</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2,622</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2,975</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Operating Income (EBIT)</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>operating_income</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1,070</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1,295</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1,540</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1,808</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2,134</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Interest Expense</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>interest_expense</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>-50</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>-60</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>-63</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>-66</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>-69</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Earnings Before Tax</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ebt</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1,120</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1,355</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1,603</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1,874</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>2,204</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Income Tax Expense</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>taxes</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>-75</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>-90</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>-108</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>-130</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>-156</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Net Income</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>net_income</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1,195</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1,445</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1,711</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2,003</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2,359</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
